--- a/resources/lecture11.xlsx
+++ b/resources/lecture11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Start Date</t>
   </si>
@@ -38,22 +38,19 @@
     <t>Average Speed</t>
   </si>
   <si>
+    <t>Lummen</t>
+  </si>
+  <si>
+    <t>Schulen</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
     <t>Heusden-Zolder</t>
-  </si>
-  <si>
-    <t>Schulen</t>
-  </si>
-  <si>
-    <t>Ghent</t>
-  </si>
-  <si>
-    <t>Lummen</t>
-  </si>
-  <si>
-    <t>Brussels</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
   </si>
 </sst>
 </file>
@@ -109,6 +106,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" ref="A6:H31" displayName="RUNNINGRESULTS" name="RUNNINGRESULTS">
+  <autoFilter ref="A6:H31"/>
   <tableColumns count="8">
     <tableColumn name="Start Date" id="1"/>
     <tableColumn name="Start Time" id="2"/>
@@ -137,7 +135,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n" s="1">
-        <v>43221.36256244213</v>
+        <v>43265.430810694445</v>
       </c>
       <c r="B1" t="n" s="2">
         <v>0.2525</v>
@@ -174,22 +172,22 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43101.39871952546</v>
+        <v>43101.409160868054</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>43101.39871952546</v>
+        <v>43101.409160868054</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43101.443302858796</v>
+        <v>43101.43182290509</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>43101.443302858796</v>
+        <v>43101.43182290509</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.78483018150855</v>
+        <v>6.668033011472151</v>
       </c>
       <c r="G7" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -200,22 +198,22 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>43106.58844710648</v>
+        <v>43101.9287515625</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>43106.58844710648</v>
+        <v>43101.9287515625</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43106.611954050924</v>
+        <v>43101.96088119213</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>43106.611954050924</v>
+        <v>43101.96088119213</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.954102450370466</v>
+        <v>9.062425027218962</v>
       </c>
       <c r="G8" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -226,22 +224,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>43110.77554909722</v>
+        <v>43106.14966076389</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>43110.77554909722</v>
+        <v>43106.14966076389</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43110.81213474537</v>
+        <v>43106.201616782404</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>43110.81213474537</v>
+        <v>43106.201616782404</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.310454205303627</v>
+        <v>13.82755953400363</v>
       </c>
       <c r="G9" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -252,22 +250,22 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43111.23508215278</v>
+        <v>43119.1888405787</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>43111.23508215278</v>
+        <v>43119.1888405787</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>43111.27659835648</v>
+        <v>43119.21737067129</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>43111.27659835648</v>
+        <v>43119.21737067129</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10.103982551618165</v>
+        <v>9.250777324426243</v>
       </c>
       <c r="G10" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -278,22 +276,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>43120.393340648145</v>
+        <v>43119.54404277778</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>43120.393340648145</v>
+        <v>43119.54404277778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43120.43991472222</v>
+        <v>43119.5649687037</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>43120.43991472222</v>
+        <v>43119.5649687037</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.665570729433334</v>
+        <v>6.485027374596375</v>
       </c>
       <c r="G11" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -304,22 +302,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43126.46044587963</v>
+        <v>43119.922652534726</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>43126.46044587963</v>
+        <v>43119.922652534726</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43126.49352458333</v>
+        <v>43119.951761331016</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>43126.49352458333</v>
+        <v>43119.951761331016</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.100988999079126</v>
+        <v>8.544304183609116</v>
       </c>
       <c r="G12" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -330,22 +328,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>43131.639920787034</v>
+        <v>43120.84319167824</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>43131.639920787034</v>
+        <v>43120.84319167824</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43131.67497865741</v>
+        <v>43120.8652171412</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>43131.67497865741</v>
+        <v>43120.8652171412</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11.245842064357424</v>
+        <v>7.086167242639629</v>
       </c>
       <c r="G13" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -356,22 +354,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43145.071653101855</v>
+        <v>43122.76418954861</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>43145.071653101855</v>
+        <v>43122.76418954861</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43145.102173935185</v>
+        <v>43122.78184001157</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>43145.102173935185</v>
+        <v>43122.78184001157</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9.185271169114596</v>
+        <v>5.849337544422425</v>
       </c>
       <c r="G14" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -382,22 +380,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>43150.784253969905</v>
+        <v>43133.54016383102</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>43150.784253969905</v>
+        <v>43133.54016383102</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43150.81249471065</v>
+        <v>43133.59371707176</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>43150.81249471065</v>
+        <v>43133.59371707176</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.757994315747412</v>
+        <v>12.996725418522178</v>
       </c>
       <c r="G15" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -408,22 +406,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>43155.097829108796</v>
+        <v>43137.14482313657</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>43155.097829108796</v>
+        <v>43137.14482313657</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43155.12275966435</v>
+        <v>43137.194776840275</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>43155.12275966435</v>
+        <v>43137.194776840275</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.413626046978362</v>
+        <v>11.48072402100897</v>
       </c>
       <c r="G16" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -434,22 +432,22 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>43156.40731577546</v>
+        <v>43148.97855799769</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>43156.40731577546</v>
+        <v>43148.97855799769</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43156.444989386575</v>
+        <v>43149.02191447917</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>43156.444989386575</v>
+        <v>43149.02191447917</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.247332280487164</v>
+        <v>13.745713262714593</v>
       </c>
       <c r="G17" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -460,22 +458,22 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>43156.6694984375</v>
+        <v>43151.58271003472</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>43156.6694984375</v>
+        <v>43151.58271003472</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43156.694949826386</v>
+        <v>43151.615997071756</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>43156.694949826386</v>
+        <v>43151.615997071756</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.585266250879749</v>
+        <v>8.978062942102753</v>
       </c>
       <c r="G18" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -486,22 +484,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>43156.90316944444</v>
+        <v>43154.95035594908</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>43156.90316944444</v>
+        <v>43154.95035594908</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43156.92541481482</v>
+        <v>43154.98872400463</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>43156.92541481482</v>
+        <v>43154.98872400463</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.87966491638922</v>
+        <v>10.081276366171927</v>
       </c>
       <c r="G19" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -512,22 +510,22 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43158.31588799768</v>
+        <v>43157.88583143518</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>43158.31588799768</v>
+        <v>43157.88583143518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>43158.341316238424</v>
+        <v>43157.91775273148</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>43158.341316238424</v>
+        <v>43157.91775273148</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.701426619999807</v>
+        <v>10.42934088903244</v>
       </c>
       <c r="G20" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -538,22 +536,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43161.0453134375</v>
+        <v>43161.591063865744</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>43161.0453134375</v>
+        <v>43161.591063865744</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43161.08326482639</v>
+        <v>43161.61484858796</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>43161.08326482639</v>
+        <v>43161.61484858796</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.465600513527729</v>
+        <v>6.249876055207235</v>
       </c>
       <c r="G21" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -564,22 +562,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43165.811384409724</v>
+        <v>43169.182145162034</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>43165.811384409724</v>
+        <v>43169.182145162034</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43165.86867607639</v>
+        <v>43169.23098775463</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>43165.86867607639</v>
+        <v>43169.23098775463</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13.428770750678911</v>
+        <v>13.973749309602663</v>
       </c>
       <c r="G22" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -590,22 +588,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43170.88761681713</v>
+        <v>43171.23680543982</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>43170.88761681713</v>
+        <v>43171.23680543982</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43170.91309135417</v>
+        <v>43171.285335532404</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>43170.91309135417</v>
+        <v>43171.285335532404</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.580888465126891</v>
+        <v>13.479708832720782</v>
       </c>
       <c r="G23" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -616,22 +614,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43170.922682303244</v>
+        <v>43172.49448210648</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>43170.922682303244</v>
+        <v>43172.49448210648</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43170.952728599535</v>
+        <v>43172.520604791665</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>43170.952728599535</v>
+        <v>43172.520604791665</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.055523557755043</v>
+        <v>7.9199883455004825</v>
       </c>
       <c r="G24" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -642,22 +640,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43178.811081493055</v>
+        <v>43180.63088365741</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>43178.811081493055</v>
+        <v>43180.63088365741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>43178.85291019676</v>
+        <v>43180.67786282407</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>43178.85291019676</v>
+        <v>43180.67786282407</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10.825513774834254</v>
+        <v>11.919680856654605</v>
       </c>
       <c r="G25" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -668,22 +666,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43193.143873796296</v>
+        <v>43180.848199375</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>43193.143873796296</v>
+        <v>43180.848199375</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>43193.17081824074</v>
+        <v>43180.910491041664</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>43193.17081824074</v>
+        <v>43180.910491041664</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8.427194664797524</v>
+        <v>13.632065683365433</v>
       </c>
       <c r="G26" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -694,22 +692,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43194.669299340276</v>
+        <v>43184.41087211805</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>43194.669299340276</v>
+        <v>43184.41087211805</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43194.69322295139</v>
+        <v>43184.433198506944</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>43194.69322295139</v>
+        <v>43184.433198506944</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.659017068388677</v>
+        <v>5.254952817949911</v>
       </c>
       <c r="G27" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -720,22 +718,22 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43203.12010988426</v>
+        <v>43192.854273668985</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>43203.12010988426</v>
+        <v>43192.854273668985</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43203.168674699074</v>
+        <v>43192.89941255787</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>43203.168674699074</v>
+        <v>43192.89941255787</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11.686026323251678</v>
+        <v>12.336936916024031</v>
       </c>
       <c r="G28" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -746,22 +744,22 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43209.27205814815</v>
+        <v>43194.31599721065</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>43209.27205814815</v>
+        <v>43194.31599721065</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43209.301479444446</v>
+        <v>43194.35825415509</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>43209.301479444446</v>
+        <v>43194.35825415509</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.832791837630243</v>
+        <v>13.334186775526472</v>
       </c>
       <c r="G29" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -772,22 +770,22 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>43216.043019282406</v>
+        <v>43209.2122253125</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>43216.043019282406</v>
+        <v>43209.2122253125</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>43216.08902622685</v>
+        <v>43209.249308645834</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>43216.08902622685</v>
+        <v>43209.249308645834</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.640626855680392</v>
+        <v>12.46160960707984</v>
       </c>
       <c r="G30" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
@@ -798,22 +796,22 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43220.76136643519</v>
+        <v>43220.35470402778</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>43220.76136643519</v>
+        <v>43220.35470402778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43220.805961342594</v>
+        <v>43220.37970402778</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>43220.805961342594</v>
+        <v>43220.37970402778</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>11.660111120729376</v>
+        <v>7.449201245258642</v>
       </c>
       <c r="G31" s="4">
         <f>INDIRECT("C"&amp;ROW())-INDIRECT("B"&amp;ROW())</f>
